--- a/Result/check3/2025-02-27.xlsx
+++ b/Result/check3/2025-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -638,17 +643,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>9907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3940.012</t>
+          <t>1459.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -658,172 +663,177 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>62.80</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>130.5</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6274</t>
+          <t>36</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>10516</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>164.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>9</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>845274727.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>瑞祺電通</t>
+          <t>55993082.0</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>統一實</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>15.27</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>33.66</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>17.37</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>10122</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>網路通訊安全相關產品76.00%、網路通訊其他產品24.00% (2023年)</t>
+          <t>26609</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>瑞祺電通-通信網路業-上市</t>
+          <t>Pet瓶及TP48.89%、鋼板32.37%、底片8.20%、鐵罐6.16%、PET瓶蓋2.68%、其他1.71% (2023年)</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>統一實-其他-上市</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>其他平</t>
         </is>
       </c>
     </row>
@@ -835,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6505</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-6.44</t>
+          <t>-1.52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15985.656</t>
+          <t>9903.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,57 +865,57 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-4.13</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>34.09</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>152.5</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>38.7</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>7864</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>10970</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -915,112 +925,117 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>18.13</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-3.04</t>
+          <t>4</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2024-11-28</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-7472174674.0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>飛捷</t>
+          <t>-251983278.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>台塑化</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>油電燃氣業</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>24.87</t>
+          <t>15.62</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>63.65</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>21173</t>
+          <t>26.18</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>工業電腦(IPC)85.66%、週邊13.10%、其他1.25% (2023年)</t>
+          <t>381991</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>飛捷-電腦及週邊設備業-上市</t>
+          <t>柴油27.49%、其他24.93%、石油化學品(乙烯及丙烯等)18.12%、汽油16.28%、航空燃料油7.04%、電力4.50%、蒸汽供應1.49%、勞務0.16% (2024年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>台塑化-油電燃氣業-上市</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>油電燃氣業右下</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>47304.0</t>
+          <t>3940.012</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,172 +1067,177 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-3.90</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>31.10</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>60.7</t>
+          <t>52.18</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>130.5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>49725</t>
+          <t>42</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>7551</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-4.52</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-4.45</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>129.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-4.48</t>
+          <t>26</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-09</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2396869.0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>高鋒</t>
+          <t>845274727.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>瑞祺電通</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>55.87</t>
+          <t>15.27</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>32.8</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>6275</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
+          <t>9865</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>高鋒-電機機械-上櫃</t>
+          <t>網路通訊安全相關產品76.00%、網路通訊其他產品24.00% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>瑞祺電通-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
         </is>
       </c>
     </row>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4164</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8647.393</t>
+          <t>47304.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,172 +1269,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-3.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>65.17</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>31.10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>60.7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8115</t>
+          <t>111</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>25237</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>129.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>86</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-4.84</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2024-12-26</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>574738778.0</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>承業醫</t>
+          <t>2396869.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>高鋒</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>31.14</t>
+          <t>55.67</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>9372</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>放射腫瘤及神經醫學相關儀器32.11%、出租30.29%、藥品及保健食品24.82%、勞務8.08%、其他3.82%、其他營業收入0.88% (2023年)</t>
+          <t>6254</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>承業醫-生技醫療業-上市</t>
+          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>高鋒-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18984.248</t>
+          <t>63567.838</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1446,172 +1471,177 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>69.8</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>19757</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-1.29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>-8.55</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>281676005.0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>臺企銀</t>
+          <t>4754586692.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>海華</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>通信網路業</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>8.74</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>12.77</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>25.72</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>141645</t>
+          <t>48.71</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>利息收入153.91%、公平價值變動之金融資產與金21.05%、手續費淨收益14.47%、透過其他綜合損益按公允價值3.87%、證券經紀1.21%、兌換損益0.61%、其他利息以外淨收益0.23% (2023年)</t>
+          <t>9809</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>臺企銀-金融保險-上市</t>
+          <t>無線通訊模組79.55%、數位影像模組18.75%、其他1.70% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>海華-通信網路業-上市</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>通信網路業右上</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>55030.0</t>
+          <t>194102.427</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,172 +1673,177 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-4.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>82.15</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>32559</t>
+          <t>219</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>18755</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>-23.0</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>-1950039348.0</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>新光金</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
           <t>0.56</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>255.0</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2424556.0</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>正德</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>12.37</t>
-        </is>
-      </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>220520</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>淨利息收益448.08%、投資性不動產37.31%、透過其他綜合損益按公允價值27.85%、外幣匯兌收益15.83%、手續費及佣金10.87%、其他3.69%、資產減損迴轉利益(減損損失)2.79%、廉價購買收益0.07% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>新光金-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88268.718</t>
+          <t>18984.248</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,172 +1875,177 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2.76</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>73.7</t>
+          <t>9.15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>32968</t>
+          <t>103</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>15609</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>25</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>-584509640.0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>裕民</t>
+          <t>281676005.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>63548</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>運費98.18%、其他1.82% (2023年)</t>
+          <t>142562</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>裕民-航運業-上市</t>
+          <t>利息收入153.91%、公平價值變動之金融資產與金21.05%、手續費淨收益14.47%、透過其他綜合損益按公允價值3.87%、證券經紀1.21%、兌換損益0.61%、其他利息以外淨收益0.23% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>臺企銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>金融保險平</t>
         </is>
       </c>
     </row>
@@ -2017,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11782.167</t>
+          <t>55030.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2037,172 +2077,177 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>82.15</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>255.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>91</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>405605279.0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>2424556.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>29.72</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>70448</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2214,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34235.674</t>
+          <t>11782.167</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2234,172 +2279,177 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-3.67</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>45.34</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>75504</t>
+          <t>80</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>7916</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>6</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>285243599.0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>廣宇</t>
+          <t>405605279.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>電腦及週邊設備業</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>23.78</t>
+          <t>26.08</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>30.16</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>24777</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>電子零組件製造及組裝59.94%、消費性電子產品及電腦週邊產40.06% (2023年)</t>
+          <t>71508</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>廣宇-電子零組件業-上市</t>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>佳世達-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
     </row>
@@ -2411,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2032</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>79313.642</t>
+          <t>9509.931</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2431,170 +2481,175 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>41.65</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>48.85</t>
+          <t>47.68</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>34461</t>
+          <t>30</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>8146</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>92</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>6733766889.0</t>
+          <t>92</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>大成鋼</t>
+          <t>580792627.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
+          <t>新鋼</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
           <t>鋼鐵工業</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>56.76</t>
+          <t>81.54</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>116236</t>
+          <t>60.31</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>大成鋼-鋼鐵工業-上市</t>
+          <t>不�袗�板等100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
+        <is>
+          <t>新鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
         <is>
           <t>鋼鐵工業右上</t>
         </is>
@@ -2608,17 +2663,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>120171.446</t>
+          <t>79313.642</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2628,172 +2683,177 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>47.34</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>41.65</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>53254</t>
+          <t>490</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>64566</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>46.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-3.18</t>
+          <t>62</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>4120685546.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>6733766889.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
+          <t>大成鋼</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
           <t>鋼鐵工業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>181.54</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>56.76</t>
+          <t>38.67</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>371343</t>
+          <t>60.31</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+          <t>120496</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>中鋼-鋼鐵工業-上市</t>
+          <t>鋁製品39.13%、不�袗�產品35.72%、螺絲及螺帽22.45%、窗飾及其他產品2.69% (2023年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>大成鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右上</t>
         </is>
       </c>
     </row>
@@ -2805,190 +2865,397 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>120171.446</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>47.34</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>59777</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-1.04</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>4120685546.0</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>中鋼</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>185.38</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>60.31</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>379210</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>中鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>鋼鐵工業平</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>1326</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>-1.16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>23572.949</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-0.66</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>62.52</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>29.7</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>20065</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>27139</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>0.57</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>-0.01</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2.45</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>0.48</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>-5.69</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>-350911790.0</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>台化</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AF14" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
         <is>
           <t>14.86</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>104.07</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>56.48</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>164699</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>110.93</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>57.91</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>175543</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
         <is>
           <t>其他18.05%、純對苯二甲酸(PTA)13.05%、ABS樹脂11.73%、合成酚8.24%、聚苯乙烯(PS)6.92%、苯乙烯(SM)6.84%、對二甲苯5.02%、純間苯二甲酸(PIA)4.47%、丙酮3.92%、聚丙烯3.91%、電力3.57%、油品3.38%、鄰二甲苯2.00%、聚碳酸酯樹脂1.90%、紗1.23%、聚胺/聚酯簾布1.17%、聚酯纖維0.93%、醋酸0.93%、尼龍絲0.88%、瓶用聚酯粒0.80%、膠膜0.59%、耐隆粒0.34%、嫘縈棉0.13%、苯0.01% (2023年)</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>台化-塑膠工業-上市</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>塑膠工業右下</t>
         </is>

--- a/Result/check3/2025-02-27.xlsx
+++ b/Result/check3/2025-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,12 +688,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10516</t>
+          <t>9307</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-0.88</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -748,34 +748,34 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>55993082.0</t>
@@ -798,7 +798,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -808,17 +808,17 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>17.37</t>
+          <t>17.89</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>38.11</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>26609</t>
+          <t>27398</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10970</t>
+          <t>10836</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>-3.74</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -950,34 +950,34 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-02-12</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>-251983278.0</t>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>63.65</t>
+          <t>61.51</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>381991</t>
+          <t>369131</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>52.18</t>
+          <t>51.85</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7551</t>
+          <t>7599</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-4.45</t>
+          <t>-5.80</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1152,34 +1152,34 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>845274727.0</t>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>49.37</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>9865</t>
+          <t>10122</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1294,12 +1294,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>83</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>25237</t>
+          <t>19663</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-5.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1354,34 +1354,34 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>-8.98</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>86</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>-4.84</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>2396869.0</t>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1414,17 +1414,17 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>55.67</t>
+          <t>53.56</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>46.15</t>
+          <t>45.72</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>6254</t>
+          <t>6016</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3694</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63567.838</t>
+          <t>8647.393</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1471,22 +1471,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>65.17</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>69.8</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1496,107 +1496,107 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>-2.70</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>-8.55</t>
+          <t>-4.88</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2024-12-26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>86</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>4754586692.0</t>
+          <t>574738778.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>海華</t>
+          <t>承業醫</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
@@ -1606,42 +1606,42 @@
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>16.63</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>25.72</t>
+          <t>28.51</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>48.71</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>9809</t>
+          <t>8967</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>無線通訊模組79.55%、數位影像模組18.75%、其他1.70% (2023年)</t>
+          <t>放射腫瘤及神經醫學相關儀器32.11%、出租30.29%、藥品及保健食品24.82%、勞務8.08%、其他3.82%、其他營業收入0.88% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>海華-通信網路業-上市</t>
+          <t>承業醫-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
     </row>
@@ -1653,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>3209</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>-4.25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>194102.427</t>
+          <t>10135.106</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1673,22 +1673,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>34.40</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1698,17 +1698,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>134</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>18755</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1718,87 +1718,87 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-23.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>79.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>79</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-1950039348.0</t>
+          <t>887387002.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>新光金</t>
+          <t>全科</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1808,42 +1808,42 @@
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.4</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>58.2</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>220520</t>
+          <t>9041</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>淨利息收益448.08%、投資性不動產37.31%、透過其他綜合損益按公允價值27.85%、外幣匯兌收益15.83%、手續費及佣金10.87%、其他3.69%、資產減損迴轉利益(減損損失)2.79%、廉價購買收益0.07% (2023年)</t>
+          <t>無線通訊元件47.47%、有線寬頻元件35.61%、其他16.91% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>新光金-金融保險-上市</t>
+          <t>全科-電子通路業-上市</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
     </row>
@@ -1855,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2834</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>-0.4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18984.248</t>
+          <t>194102.427</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1875,22 +1875,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.15</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15.65</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1900,27 +1900,27 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>395</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15609</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1930,42 +1930,42 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>-23.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1975,27 +1975,27 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>281676005.0</t>
+          <t>-1950039348.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>臺企銀</t>
+          <t>新光金</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -2010,42 +2010,42 @@
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>142562</t>
+          <t>222292</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>利息收入153.91%、公平價值變動之金融資產與金21.05%、手續費淨收益14.47%、透過其他綜合損益按公允價值3.87%、證券經紀1.21%、兌換損益0.61%、其他利息以外淨收益0.23% (2023年)</t>
+          <t>利息淨收益278.40%、兌換損益260.23%、採用覆蓋法重分類損益23.02%、投資性不動產18.15%、透過其他綜合損益按公允價值15.47%、手續費及佣金6.49%、其他3.09%、資產減損迴轉利益(減損損失)1.56% (2024年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>臺企銀-金融保險-上市</t>
+          <t>新光金-金融保險-上市</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>金融保險平</t>
+          <t>金融保險右上</t>
         </is>
       </c>
     </row>
@@ -2057,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>55030.0</t>
+          <t>18984.248</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2077,97 +2077,97 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-4.27</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>19342</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.61</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>82.15</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>23.25</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>24135</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-0.36</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>255.0</t>
+          <t>24.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2177,77 +2177,77 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2424556.0</t>
+          <t>281676005.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>7511</t>
+          <t>142562</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>利息淨收益56.03%、手續費淨收益19.22%、透過損益按公允價值衡量之金18.42%、透過其他綜合損益按公允價值3.39%、證券經紀1.53%、兌換損益0.98%、其他利息以外淨收益0.37%、資產減損迴轉利益(減損損失)0.07% (2024年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>臺企銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險平</t>
         </is>
       </c>
     </row>
@@ -2259,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11782.167</t>
+          <t>55030.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2279,22 +2279,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>82.15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>23.25</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2304,72 +2304,72 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7916</t>
+          <t>16609</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>-2.34</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>255.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2379,77 +2379,77 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>405605279.0</t>
+          <t>2424556.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>佳世達</t>
+          <t>正德</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>26.08</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>72.87</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>71508</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>電子產品92.68%、其他7.32% (2023年)</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>佳世達-電腦及週邊設備業-上市</t>
+          <t>正德-航運業-上櫃</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2032</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.16</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9509.931</t>
+          <t>11782.167</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2481,22 +2481,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>47.68</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21.45</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2506,72 +2506,72 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>308</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8146</t>
+          <t>26588</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>-5.97</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-6.11</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2581,32 +2581,32 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>580792627.0</t>
+          <t>405605279.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>新鋼</t>
+          <t>佳世達</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2616,42 +2616,42 @@
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>28.07</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>81.54</t>
+          <t>30.67</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>72.01</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>66208</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>不�袗�板等100.00% (2023年)</t>
+          <t>電子產品92.68%、其他7.32% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>新鋼-鋼鐵工業-上市</t>
+          <t>佳世達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>鋼鐵工業右上</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
     </row>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>703</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>64566</t>
+          <t>75848</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2768,34 +2768,34 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2025-01-03</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
           <t>6733766889.0</t>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -2828,17 +2828,17 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>38.67</t>
+          <t>39.61</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>120496</t>
+          <t>123417</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -2910,12 +2910,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>452</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>59777</t>
+          <t>74808</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2970,34 +2970,34 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>-1.04</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
       <c r="AC13" t="inlineStr">
         <is>
           <t>4120685546.0</t>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3030,17 +3030,17 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>185.38</t>
+          <t>186.54</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>60.31</t>
+          <t>60.52</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>379210</t>
+          <t>381570</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>86</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>27139</t>
+          <t>19590</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>-1.88</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -3172,92 +3172,294 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>-1.54</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>-350911790.0</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>台化</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>108.33</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>171440</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>其他18.05%、純對苯二甲酸(PTA)13.05%、ABS樹脂11.73%、合成酚8.24%、聚苯乙烯(PS)6.92%、苯乙烯(SM)6.84%、對二甲苯5.02%、純間苯二甲酸(PIA)4.47%、丙酮3.92%、聚丙烯3.91%、電力3.57%、油品3.38%、鄰二甲苯2.00%、聚碳酸酯樹脂1.90%、紗1.23%、聚胺/聚酯簾布1.17%、聚酯纖維0.93%、醋酸0.93%、尼龍絲0.88%、瓶用聚酯粒0.80%、膠膜0.59%、耐隆粒0.34%、嫘縈棉0.13%、苯0.01% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>台化-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>塑膠工業右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1307</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-4.26</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5963.8</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5338</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>-350911790.0</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>台化</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>-11399399.0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>三芳</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>塑膠工業</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>110.93</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>57.91</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>175543</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>其他18.05%、純對苯二甲酸(PTA)13.05%、ABS樹脂11.73%、合成酚8.24%、聚苯乙烯(PS)6.92%、苯乙烯(SM)6.84%、對二甲苯5.02%、純間苯二甲酸(PIA)4.47%、丙酮3.92%、聚丙烯3.91%、電力3.57%、油品3.38%、鄰二甲苯2.00%、聚碳酸酯樹脂1.90%、紗1.23%、聚胺/聚酯簾布1.17%、聚酯纖維0.93%、醋酸0.93%、尼龍絲0.88%、瓶用聚酯粒0.80%、膠膜0.59%、耐隆粒0.34%、嫘縈棉0.13%、苯0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>台化-塑膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>塑膠工業右下</t>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>17.41</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>57.54</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>20846</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>濕式合成皮革61.59%、乾式合成皮革27.92%、其他9.19%、薄膜1.30% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>三芳-塑膠工業-上市</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-02-27.xlsx
+++ b/Result/check3/2025-02-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS1"/>
+  <dimension ref="A1:AU1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,40 +621,50 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
+          <t>營業毛利率</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>營業利益率</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>每股淨值(元)</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>短增level</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>flag</t>
         </is>
